--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value903.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value903.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.934186423543337</v>
+        <v>1.334811329841614</v>
       </c>
       <c r="B1">
-        <v>2.25600891933587</v>
+        <v>2.940743207931519</v>
       </c>
       <c r="C1">
-        <v>2.304112532707588</v>
+        <v>1.822762727737427</v>
       </c>
       <c r="D1">
-        <v>2.976467058324374</v>
+        <v>1.261430263519287</v>
       </c>
       <c r="E1">
-        <v>1.967710679548926</v>
+        <v>1.045578598976135</v>
       </c>
     </row>
   </sheetData>
